--- a/Income/RJF_inc.xlsx
+++ b/Income/RJF_inc.xlsx
@@ -1951,16 +1951,16 @@
         <v>0.9974</v>
       </c>
       <c r="D15" s="0" t="n">
+        <v>1.0028</v>
+      </c>
+      <c r="E15" s="0" t="n">
+        <v>0.9938</v>
+      </c>
+      <c r="F15" s="0" t="n">
         <v>0.9959</v>
       </c>
-      <c r="E15" s="0" t="n">
-        <v>0.9869</v>
-      </c>
-      <c r="F15" s="0" t="n">
-        <v>0.9891</v>
-      </c>
       <c r="G15" s="0" t="n">
-        <v>0.9929</v>
+        <v>1.0</v>
       </c>
       <c r="H15" s="0" t="n">
         <v>1.0</v>
@@ -2078,16 +2078,16 @@
         <v>0.1873</v>
       </c>
       <c r="D16" s="0" t="n">
-        <v>0.1848</v>
+        <v>0.1861</v>
       </c>
       <c r="E16" s="0" t="n">
-        <v>0.1853</v>
+        <v>0.1866</v>
       </c>
       <c r="F16" s="0" t="n">
-        <v>0.1936</v>
+        <v>0.1949</v>
       </c>
       <c r="G16" s="0" t="n">
-        <v>0.1999</v>
+        <v>0.2013</v>
       </c>
       <c r="H16" s="0" t="n">
         <v>0.2113</v>
@@ -2205,16 +2205,16 @@
         <v>0.13</v>
       </c>
       <c r="D17" s="0" t="n">
-        <v>0.1283</v>
+        <v>0.1292</v>
       </c>
       <c r="E17" s="0" t="n">
-        <v>0.1399</v>
+        <v>0.1409</v>
       </c>
       <c r="F17" s="0" t="n">
-        <v>0.1554</v>
+        <v>0.1565</v>
       </c>
       <c r="G17" s="0" t="n">
-        <v>0.1734</v>
+        <v>0.1746</v>
       </c>
       <c r="H17" s="0" t="n">
         <v>0.1714</v>
@@ -2332,16 +2332,16 @@
         <v>0.1025</v>
       </c>
       <c r="D18" s="0" t="n">
-        <v>0.0996</v>
+        <v>0.1003</v>
       </c>
       <c r="E18" s="0" t="n">
-        <v>0.1061</v>
+        <v>0.1068</v>
       </c>
       <c r="F18" s="0" t="n">
-        <v>0.115</v>
+        <v>0.1158</v>
       </c>
       <c r="G18" s="0" t="n">
-        <v>0.1299</v>
+        <v>0.1308</v>
       </c>
       <c r="H18" s="0" t="n">
         <v>0.1286</v>
@@ -2459,16 +2459,16 @@
         <v>0.6326</v>
       </c>
       <c r="D19" s="0" t="n">
-        <v>0.4676</v>
+        <v>0.4797</v>
       </c>
       <c r="E19" s="0" t="n">
-        <v>0.3355</v>
+        <v>0.3466</v>
       </c>
       <c r="F19" s="0" t="n">
-        <v>0.3695</v>
+        <v>0.3807</v>
       </c>
       <c r="G19" s="0" t="n">
-        <v>0.084</v>
+        <v>0.0935</v>
       </c>
       <c r="H19" s="0" t="n">
         <v>0.0547</v>
@@ -3477,16 +3477,16 @@
         <v>0.2074</v>
       </c>
       <c r="D27" s="0" t="n">
-        <v>0.2063</v>
+        <v>0.2077</v>
       </c>
       <c r="E27" s="0" t="n">
-        <v>0.2062</v>
+        <v>0.2076</v>
       </c>
       <c r="F27" s="0" t="n">
-        <v>0.2136</v>
+        <v>0.2151</v>
       </c>
       <c r="G27" s="0" t="n">
-        <v>0.2166</v>
+        <v>0.2181</v>
       </c>
       <c r="H27" s="0" t="n">
         <v>0.227</v>
@@ -3604,16 +3604,16 @@
         <v>0.6461</v>
       </c>
       <c r="D28" s="0" t="n">
-        <v>0.4827</v>
+        <v>0.4949</v>
       </c>
       <c r="E28" s="0" t="n">
-        <v>0.3517</v>
+        <v>0.3629</v>
       </c>
       <c r="F28" s="0" t="n">
-        <v>0.3875</v>
+        <v>0.3989</v>
       </c>
       <c r="G28" s="0" t="n">
-        <v>0.1022</v>
+        <v>0.1119</v>
       </c>
       <c r="H28" s="0" t="n">
         <v>0.0719</v>
